--- a/Datasets/yeast-1_vs_7-5-fold/yeast-1_vs_7-5-3tra.xlsx
+++ b/Datasets/yeast-1_vs_7-5-fold/yeast-1_vs_7-5-3tra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J368"/>
+  <dimension ref="A1:I368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mcg</t>
+          <t>Mcg,</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Gvh,</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Alm,</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mit,</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Erl,</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Vac,</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Nuc</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
@@ -508,7 +503,6 @@
       <c r="I2" t="n">
         <v>-1</v>
       </c>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -538,7 +532,6 @@
       <c r="I3" t="n">
         <v>-1</v>
       </c>
-      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -568,7 +561,6 @@
       <c r="I4" t="n">
         <v>-1</v>
       </c>
-      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -598,7 +590,6 @@
       <c r="I5" t="n">
         <v>-1</v>
       </c>
-      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -628,7 +619,6 @@
       <c r="I6" t="n">
         <v>-1</v>
       </c>
-      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -658,7 +648,6 @@
       <c r="I7" t="n">
         <v>-1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,7 +677,6 @@
       <c r="I8" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -718,7 +706,6 @@
       <c r="I9" t="n">
         <v>-1</v>
       </c>
-      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,7 +735,6 @@
       <c r="I10" t="n">
         <v>-1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -778,7 +764,6 @@
       <c r="I11" t="n">
         <v>-1</v>
       </c>
-      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -808,7 +793,6 @@
       <c r="I12" t="n">
         <v>-1</v>
       </c>
-      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -838,7 +822,6 @@
       <c r="I13" t="n">
         <v>-1</v>
       </c>
-      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +851,6 @@
       <c r="I14" t="n">
         <v>-1</v>
       </c>
-      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -898,7 +880,6 @@
       <c r="I15" t="n">
         <v>-1</v>
       </c>
-      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -928,7 +909,6 @@
       <c r="I16" t="n">
         <v>-1</v>
       </c>
-      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -958,7 +938,6 @@
       <c r="I17" t="n">
         <v>-1</v>
       </c>
-      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -988,7 +967,6 @@
       <c r="I18" t="n">
         <v>-1</v>
       </c>
-      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1018,7 +996,6 @@
       <c r="I19" t="n">
         <v>-1</v>
       </c>
-      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1048,7 +1025,6 @@
       <c r="I20" t="n">
         <v>-1</v>
       </c>
-      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1078,7 +1054,6 @@
       <c r="I21" t="n">
         <v>-1</v>
       </c>
-      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,7 +1083,6 @@
       <c r="I22" t="n">
         <v>-1</v>
       </c>
-      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1138,7 +1112,6 @@
       <c r="I23" t="n">
         <v>-1</v>
       </c>
-      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1168,7 +1141,6 @@
       <c r="I24" t="n">
         <v>-1</v>
       </c>
-      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1198,7 +1170,6 @@
       <c r="I25" t="n">
         <v>-1</v>
       </c>
-      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1228,7 +1199,6 @@
       <c r="I26" t="n">
         <v>-1</v>
       </c>
-      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1258,7 +1228,6 @@
       <c r="I27" t="n">
         <v>-1</v>
       </c>
-      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1288,7 +1257,6 @@
       <c r="I28" t="n">
         <v>-1</v>
       </c>
-      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1318,7 +1286,6 @@
       <c r="I29" t="n">
         <v>-1</v>
       </c>
-      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1348,7 +1315,6 @@
       <c r="I30" t="n">
         <v>-1</v>
       </c>
-      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1378,7 +1344,6 @@
       <c r="I31" t="n">
         <v>-1</v>
       </c>
-      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1408,7 +1373,6 @@
       <c r="I32" t="n">
         <v>-1</v>
       </c>
-      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1438,7 +1402,6 @@
       <c r="I33" t="n">
         <v>-1</v>
       </c>
-      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1468,7 +1431,6 @@
       <c r="I34" t="n">
         <v>-1</v>
       </c>
-      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1498,7 +1460,6 @@
       <c r="I35" t="n">
         <v>-1</v>
       </c>
-      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1528,7 +1489,6 @@
       <c r="I36" t="n">
         <v>-1</v>
       </c>
-      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1558,7 +1518,6 @@
       <c r="I37" t="n">
         <v>-1</v>
       </c>
-      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1588,7 +1547,6 @@
       <c r="I38" t="n">
         <v>-1</v>
       </c>
-      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1618,7 +1576,6 @@
       <c r="I39" t="n">
         <v>-1</v>
       </c>
-      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1648,7 +1605,6 @@
       <c r="I40" t="n">
         <v>-1</v>
       </c>
-      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1678,7 +1634,6 @@
       <c r="I41" t="n">
         <v>-1</v>
       </c>
-      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1708,7 +1663,6 @@
       <c r="I42" t="n">
         <v>-1</v>
       </c>
-      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1738,7 +1692,6 @@
       <c r="I43" t="n">
         <v>-1</v>
       </c>
-      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1768,7 +1721,6 @@
       <c r="I44" t="n">
         <v>-1</v>
       </c>
-      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1798,7 +1750,6 @@
       <c r="I45" t="n">
         <v>-1</v>
       </c>
-      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1828,7 +1779,6 @@
       <c r="I46" t="n">
         <v>-1</v>
       </c>
-      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1858,7 +1808,6 @@
       <c r="I47" t="n">
         <v>-1</v>
       </c>
-      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1888,7 +1837,6 @@
       <c r="I48" t="n">
         <v>-1</v>
       </c>
-      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1918,7 +1866,6 @@
       <c r="I49" t="n">
         <v>-1</v>
       </c>
-      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1948,7 +1895,6 @@
       <c r="I50" t="n">
         <v>-1</v>
       </c>
-      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1978,7 +1924,6 @@
       <c r="I51" t="n">
         <v>-1</v>
       </c>
-      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2008,7 +1953,6 @@
       <c r="I52" t="n">
         <v>-1</v>
       </c>
-      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2038,7 +1982,6 @@
       <c r="I53" t="n">
         <v>-1</v>
       </c>
-      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2068,7 +2011,6 @@
       <c r="I54" t="n">
         <v>-1</v>
       </c>
-      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2098,7 +2040,6 @@
       <c r="I55" t="n">
         <v>-1</v>
       </c>
-      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2128,7 +2069,6 @@
       <c r="I56" t="n">
         <v>-1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2158,7 +2098,6 @@
       <c r="I57" t="n">
         <v>-1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2188,7 +2127,6 @@
       <c r="I58" t="n">
         <v>-1</v>
       </c>
-      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2218,7 +2156,6 @@
       <c r="I59" t="n">
         <v>-1</v>
       </c>
-      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2248,7 +2185,6 @@
       <c r="I60" t="n">
         <v>-1</v>
       </c>
-      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2278,7 +2214,6 @@
       <c r="I61" t="n">
         <v>-1</v>
       </c>
-      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2308,7 +2243,6 @@
       <c r="I62" t="n">
         <v>-1</v>
       </c>
-      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2338,7 +2272,6 @@
       <c r="I63" t="n">
         <v>-1</v>
       </c>
-      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2368,7 +2301,6 @@
       <c r="I64" t="n">
         <v>-1</v>
       </c>
-      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2398,7 +2330,6 @@
       <c r="I65" t="n">
         <v>-1</v>
       </c>
-      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2428,7 +2359,6 @@
       <c r="I66" t="n">
         <v>-1</v>
       </c>
-      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2458,7 +2388,6 @@
       <c r="I67" t="n">
         <v>-1</v>
       </c>
-      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2488,7 +2417,6 @@
       <c r="I68" t="n">
         <v>-1</v>
       </c>
-      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2518,7 +2446,6 @@
       <c r="I69" t="n">
         <v>-1</v>
       </c>
-      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2548,7 +2475,6 @@
       <c r="I70" t="n">
         <v>-1</v>
       </c>
-      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2578,7 +2504,6 @@
       <c r="I71" t="n">
         <v>-1</v>
       </c>
-      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2608,7 +2533,6 @@
       <c r="I72" t="n">
         <v>-1</v>
       </c>
-      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2638,7 +2562,6 @@
       <c r="I73" t="n">
         <v>-1</v>
       </c>
-      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2668,7 +2591,6 @@
       <c r="I74" t="n">
         <v>-1</v>
       </c>
-      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2698,7 +2620,6 @@
       <c r="I75" t="n">
         <v>-1</v>
       </c>
-      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2728,7 +2649,6 @@
       <c r="I76" t="n">
         <v>-1</v>
       </c>
-      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2758,7 +2678,6 @@
       <c r="I77" t="n">
         <v>-1</v>
       </c>
-      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2788,7 +2707,6 @@
       <c r="I78" t="n">
         <v>-1</v>
       </c>
-      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2818,7 +2736,6 @@
       <c r="I79" t="n">
         <v>-1</v>
       </c>
-      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2848,7 +2765,6 @@
       <c r="I80" t="n">
         <v>-1</v>
       </c>
-      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2878,7 +2794,6 @@
       <c r="I81" t="n">
         <v>-1</v>
       </c>
-      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2908,7 +2823,6 @@
       <c r="I82" t="n">
         <v>-1</v>
       </c>
-      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2938,7 +2852,6 @@
       <c r="I83" t="n">
         <v>-1</v>
       </c>
-      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2968,7 +2881,6 @@
       <c r="I84" t="n">
         <v>-1</v>
       </c>
-      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2998,7 +2910,6 @@
       <c r="I85" t="n">
         <v>-1</v>
       </c>
-      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3028,7 +2939,6 @@
       <c r="I86" t="n">
         <v>-1</v>
       </c>
-      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3058,7 +2968,6 @@
       <c r="I87" t="n">
         <v>-1</v>
       </c>
-      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3088,7 +2997,6 @@
       <c r="I88" t="n">
         <v>-1</v>
       </c>
-      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3118,7 +3026,6 @@
       <c r="I89" t="n">
         <v>-1</v>
       </c>
-      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3148,7 +3055,6 @@
       <c r="I90" t="n">
         <v>-1</v>
       </c>
-      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3178,7 +3084,6 @@
       <c r="I91" t="n">
         <v>-1</v>
       </c>
-      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3208,7 +3113,6 @@
       <c r="I92" t="n">
         <v>-1</v>
       </c>
-      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3238,7 +3142,6 @@
       <c r="I93" t="n">
         <v>-1</v>
       </c>
-      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3268,7 +3171,6 @@
       <c r="I94" t="n">
         <v>-1</v>
       </c>
-      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3298,7 +3200,6 @@
       <c r="I95" t="n">
         <v>-1</v>
       </c>
-      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3328,7 +3229,6 @@
       <c r="I96" t="n">
         <v>-1</v>
       </c>
-      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3358,7 +3258,6 @@
       <c r="I97" t="n">
         <v>-1</v>
       </c>
-      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3388,7 +3287,6 @@
       <c r="I98" t="n">
         <v>-1</v>
       </c>
-      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3418,7 +3316,6 @@
       <c r="I99" t="n">
         <v>-1</v>
       </c>
-      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3448,7 +3345,6 @@
       <c r="I100" t="n">
         <v>-1</v>
       </c>
-      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3478,7 +3374,6 @@
       <c r="I101" t="n">
         <v>-1</v>
       </c>
-      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3508,7 +3403,6 @@
       <c r="I102" t="n">
         <v>-1</v>
       </c>
-      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3538,7 +3432,6 @@
       <c r="I103" t="n">
         <v>-1</v>
       </c>
-      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3568,7 +3461,6 @@
       <c r="I104" t="n">
         <v>-1</v>
       </c>
-      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3598,7 +3490,6 @@
       <c r="I105" t="n">
         <v>-1</v>
       </c>
-      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3628,7 +3519,6 @@
       <c r="I106" t="n">
         <v>-1</v>
       </c>
-      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3658,7 +3548,6 @@
       <c r="I107" t="n">
         <v>-1</v>
       </c>
-      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3688,7 +3577,6 @@
       <c r="I108" t="n">
         <v>-1</v>
       </c>
-      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3718,7 +3606,6 @@
       <c r="I109" t="n">
         <v>-1</v>
       </c>
-      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3748,7 +3635,6 @@
       <c r="I110" t="n">
         <v>-1</v>
       </c>
-      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3778,7 +3664,6 @@
       <c r="I111" t="n">
         <v>-1</v>
       </c>
-      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3808,7 +3693,6 @@
       <c r="I112" t="n">
         <v>-1</v>
       </c>
-      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3838,7 +3722,6 @@
       <c r="I113" t="n">
         <v>-1</v>
       </c>
-      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3868,7 +3751,6 @@
       <c r="I114" t="n">
         <v>-1</v>
       </c>
-      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3898,7 +3780,6 @@
       <c r="I115" t="n">
         <v>-1</v>
       </c>
-      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3928,7 +3809,6 @@
       <c r="I116" t="n">
         <v>-1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3958,7 +3838,6 @@
       <c r="I117" t="n">
         <v>-1</v>
       </c>
-      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3988,7 +3867,6 @@
       <c r="I118" t="n">
         <v>-1</v>
       </c>
-      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4018,7 +3896,6 @@
       <c r="I119" t="n">
         <v>-1</v>
       </c>
-      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4048,7 +3925,6 @@
       <c r="I120" t="n">
         <v>-1</v>
       </c>
-      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4078,7 +3954,6 @@
       <c r="I121" t="n">
         <v>-1</v>
       </c>
-      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4108,7 +3983,6 @@
       <c r="I122" t="n">
         <v>-1</v>
       </c>
-      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4138,7 +4012,6 @@
       <c r="I123" t="n">
         <v>-1</v>
       </c>
-      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4168,7 +4041,6 @@
       <c r="I124" t="n">
         <v>-1</v>
       </c>
-      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4198,7 +4070,6 @@
       <c r="I125" t="n">
         <v>-1</v>
       </c>
-      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4228,7 +4099,6 @@
       <c r="I126" t="n">
         <v>-1</v>
       </c>
-      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4258,7 +4128,6 @@
       <c r="I127" t="n">
         <v>-1</v>
       </c>
-      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4288,7 +4157,6 @@
       <c r="I128" t="n">
         <v>-1</v>
       </c>
-      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4318,7 +4186,6 @@
       <c r="I129" t="n">
         <v>-1</v>
       </c>
-      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4348,7 +4215,6 @@
       <c r="I130" t="n">
         <v>-1</v>
       </c>
-      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4378,7 +4244,6 @@
       <c r="I131" t="n">
         <v>-1</v>
       </c>
-      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4408,7 +4273,6 @@
       <c r="I132" t="n">
         <v>-1</v>
       </c>
-      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4438,7 +4302,6 @@
       <c r="I133" t="n">
         <v>-1</v>
       </c>
-      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4468,7 +4331,6 @@
       <c r="I134" t="n">
         <v>-1</v>
       </c>
-      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4498,7 +4360,6 @@
       <c r="I135" t="n">
         <v>-1</v>
       </c>
-      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4528,7 +4389,6 @@
       <c r="I136" t="n">
         <v>-1</v>
       </c>
-      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4558,7 +4418,6 @@
       <c r="I137" t="n">
         <v>-1</v>
       </c>
-      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4588,7 +4447,6 @@
       <c r="I138" t="n">
         <v>-1</v>
       </c>
-      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4618,7 +4476,6 @@
       <c r="I139" t="n">
         <v>-1</v>
       </c>
-      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4648,7 +4505,6 @@
       <c r="I140" t="n">
         <v>-1</v>
       </c>
-      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4678,7 +4534,6 @@
       <c r="I141" t="n">
         <v>-1</v>
       </c>
-      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4708,7 +4563,6 @@
       <c r="I142" t="n">
         <v>-1</v>
       </c>
-      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4738,7 +4592,6 @@
       <c r="I143" t="n">
         <v>-1</v>
       </c>
-      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4768,7 +4621,6 @@
       <c r="I144" t="n">
         <v>-1</v>
       </c>
-      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4798,7 +4650,6 @@
       <c r="I145" t="n">
         <v>-1</v>
       </c>
-      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4828,7 +4679,6 @@
       <c r="I146" t="n">
         <v>-1</v>
       </c>
-      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4858,7 +4708,6 @@
       <c r="I147" t="n">
         <v>-1</v>
       </c>
-      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4888,7 +4737,6 @@
       <c r="I148" t="n">
         <v>-1</v>
       </c>
-      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4918,7 +4766,6 @@
       <c r="I149" t="n">
         <v>-1</v>
       </c>
-      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4948,7 +4795,6 @@
       <c r="I150" t="n">
         <v>-1</v>
       </c>
-      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4978,7 +4824,6 @@
       <c r="I151" t="n">
         <v>-1</v>
       </c>
-      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5008,7 +4853,6 @@
       <c r="I152" t="n">
         <v>-1</v>
       </c>
-      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5038,7 +4882,6 @@
       <c r="I153" t="n">
         <v>-1</v>
       </c>
-      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5068,7 +4911,6 @@
       <c r="I154" t="n">
         <v>-1</v>
       </c>
-      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5098,7 +4940,6 @@
       <c r="I155" t="n">
         <v>-1</v>
       </c>
-      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5128,7 +4969,6 @@
       <c r="I156" t="n">
         <v>-1</v>
       </c>
-      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5158,7 +4998,6 @@
       <c r="I157" t="n">
         <v>-1</v>
       </c>
-      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5188,7 +5027,6 @@
       <c r="I158" t="n">
         <v>-1</v>
       </c>
-      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5218,7 +5056,6 @@
       <c r="I159" t="n">
         <v>-1</v>
       </c>
-      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5248,7 +5085,6 @@
       <c r="I160" t="n">
         <v>-1</v>
       </c>
-      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5278,7 +5114,6 @@
       <c r="I161" t="n">
         <v>-1</v>
       </c>
-      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5308,7 +5143,6 @@
       <c r="I162" t="n">
         <v>-1</v>
       </c>
-      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5338,7 +5172,6 @@
       <c r="I163" t="n">
         <v>-1</v>
       </c>
-      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5368,7 +5201,6 @@
       <c r="I164" t="n">
         <v>-1</v>
       </c>
-      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5398,7 +5230,6 @@
       <c r="I165" t="n">
         <v>-1</v>
       </c>
-      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5428,7 +5259,6 @@
       <c r="I166" t="n">
         <v>-1</v>
       </c>
-      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5458,7 +5288,6 @@
       <c r="I167" t="n">
         <v>-1</v>
       </c>
-      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5488,7 +5317,6 @@
       <c r="I168" t="n">
         <v>-1</v>
       </c>
-      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5518,7 +5346,6 @@
       <c r="I169" t="n">
         <v>-1</v>
       </c>
-      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5548,7 +5375,6 @@
       <c r="I170" t="n">
         <v>-1</v>
       </c>
-      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5578,7 +5404,6 @@
       <c r="I171" t="n">
         <v>-1</v>
       </c>
-      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5608,7 +5433,6 @@
       <c r="I172" t="n">
         <v>-1</v>
       </c>
-      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5638,7 +5462,6 @@
       <c r="I173" t="n">
         <v>-1</v>
       </c>
-      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5668,7 +5491,6 @@
       <c r="I174" t="n">
         <v>-1</v>
       </c>
-      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5698,7 +5520,6 @@
       <c r="I175" t="n">
         <v>-1</v>
       </c>
-      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5728,7 +5549,6 @@
       <c r="I176" t="n">
         <v>-1</v>
       </c>
-      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5758,7 +5578,6 @@
       <c r="I177" t="n">
         <v>-1</v>
       </c>
-      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5788,7 +5607,6 @@
       <c r="I178" t="n">
         <v>-1</v>
       </c>
-      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5818,7 +5636,6 @@
       <c r="I179" t="n">
         <v>-1</v>
       </c>
-      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5848,7 +5665,6 @@
       <c r="I180" t="n">
         <v>-1</v>
       </c>
-      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -5878,7 +5694,6 @@
       <c r="I181" t="n">
         <v>-1</v>
       </c>
-      <c r="J181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -5908,7 +5723,6 @@
       <c r="I182" t="n">
         <v>-1</v>
       </c>
-      <c r="J182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5938,7 +5752,6 @@
       <c r="I183" t="n">
         <v>-1</v>
       </c>
-      <c r="J183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5968,7 +5781,6 @@
       <c r="I184" t="n">
         <v>-1</v>
       </c>
-      <c r="J184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5998,7 +5810,6 @@
       <c r="I185" t="n">
         <v>-1</v>
       </c>
-      <c r="J185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6028,7 +5839,6 @@
       <c r="I186" t="n">
         <v>-1</v>
       </c>
-      <c r="J186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6058,7 +5868,6 @@
       <c r="I187" t="n">
         <v>-1</v>
       </c>
-      <c r="J187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6088,7 +5897,6 @@
       <c r="I188" t="n">
         <v>-1</v>
       </c>
-      <c r="J188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6118,7 +5926,6 @@
       <c r="I189" t="n">
         <v>-1</v>
       </c>
-      <c r="J189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6148,7 +5955,6 @@
       <c r="I190" t="n">
         <v>-1</v>
       </c>
-      <c r="J190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6178,7 +5984,6 @@
       <c r="I191" t="n">
         <v>-1</v>
       </c>
-      <c r="J191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6208,7 +6013,6 @@
       <c r="I192" t="n">
         <v>-1</v>
       </c>
-      <c r="J192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6238,7 +6042,6 @@
       <c r="I193" t="n">
         <v>-1</v>
       </c>
-      <c r="J193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6268,7 +6071,6 @@
       <c r="I194" t="n">
         <v>-1</v>
       </c>
-      <c r="J194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6298,7 +6100,6 @@
       <c r="I195" t="n">
         <v>-1</v>
       </c>
-      <c r="J195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6328,7 +6129,6 @@
       <c r="I196" t="n">
         <v>-1</v>
       </c>
-      <c r="J196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6358,7 +6158,6 @@
       <c r="I197" t="n">
         <v>-1</v>
       </c>
-      <c r="J197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6388,7 +6187,6 @@
       <c r="I198" t="n">
         <v>-1</v>
       </c>
-      <c r="J198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6418,7 +6216,6 @@
       <c r="I199" t="n">
         <v>-1</v>
       </c>
-      <c r="J199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6448,7 +6245,6 @@
       <c r="I200" t="n">
         <v>-1</v>
       </c>
-      <c r="J200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6478,7 +6274,6 @@
       <c r="I201" t="n">
         <v>-1</v>
       </c>
-      <c r="J201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6508,7 +6303,6 @@
       <c r="I202" t="n">
         <v>-1</v>
       </c>
-      <c r="J202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6538,7 +6332,6 @@
       <c r="I203" t="n">
         <v>-1</v>
       </c>
-      <c r="J203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6568,7 +6361,6 @@
       <c r="I204" t="n">
         <v>-1</v>
       </c>
-      <c r="J204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6598,7 +6390,6 @@
       <c r="I205" t="n">
         <v>-1</v>
       </c>
-      <c r="J205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6628,7 +6419,6 @@
       <c r="I206" t="n">
         <v>-1</v>
       </c>
-      <c r="J206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6658,7 +6448,6 @@
       <c r="I207" t="n">
         <v>-1</v>
       </c>
-      <c r="J207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6688,7 +6477,6 @@
       <c r="I208" t="n">
         <v>-1</v>
       </c>
-      <c r="J208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6718,7 +6506,6 @@
       <c r="I209" t="n">
         <v>-1</v>
       </c>
-      <c r="J209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6748,7 +6535,6 @@
       <c r="I210" t="n">
         <v>-1</v>
       </c>
-      <c r="J210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6778,7 +6564,6 @@
       <c r="I211" t="n">
         <v>-1</v>
       </c>
-      <c r="J211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6808,7 +6593,6 @@
       <c r="I212" t="n">
         <v>-1</v>
       </c>
-      <c r="J212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -6838,7 +6622,6 @@
       <c r="I213" t="n">
         <v>-1</v>
       </c>
-      <c r="J213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -6868,7 +6651,6 @@
       <c r="I214" t="n">
         <v>-1</v>
       </c>
-      <c r="J214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6898,7 +6680,6 @@
       <c r="I215" t="n">
         <v>-1</v>
       </c>
-      <c r="J215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -6928,7 +6709,6 @@
       <c r="I216" t="n">
         <v>-1</v>
       </c>
-      <c r="J216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -6958,7 +6738,6 @@
       <c r="I217" t="n">
         <v>-1</v>
       </c>
-      <c r="J217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -6988,7 +6767,6 @@
       <c r="I218" t="n">
         <v>-1</v>
       </c>
-      <c r="J218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7018,7 +6796,6 @@
       <c r="I219" t="n">
         <v>-1</v>
       </c>
-      <c r="J219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7048,7 +6825,6 @@
       <c r="I220" t="n">
         <v>-1</v>
       </c>
-      <c r="J220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7078,7 +6854,6 @@
       <c r="I221" t="n">
         <v>-1</v>
       </c>
-      <c r="J221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7108,7 +6883,6 @@
       <c r="I222" t="n">
         <v>-1</v>
       </c>
-      <c r="J222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7138,7 +6912,6 @@
       <c r="I223" t="n">
         <v>-1</v>
       </c>
-      <c r="J223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7168,7 +6941,6 @@
       <c r="I224" t="n">
         <v>-1</v>
       </c>
-      <c r="J224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7198,7 +6970,6 @@
       <c r="I225" t="n">
         <v>-1</v>
       </c>
-      <c r="J225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7228,7 +6999,6 @@
       <c r="I226" t="n">
         <v>-1</v>
       </c>
-      <c r="J226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7258,7 +7028,6 @@
       <c r="I227" t="n">
         <v>-1</v>
       </c>
-      <c r="J227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7288,7 +7057,6 @@
       <c r="I228" t="n">
         <v>-1</v>
       </c>
-      <c r="J228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7318,7 +7086,6 @@
       <c r="I229" t="n">
         <v>-1</v>
       </c>
-      <c r="J229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7348,7 +7115,6 @@
       <c r="I230" t="n">
         <v>-1</v>
       </c>
-      <c r="J230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7378,7 +7144,6 @@
       <c r="I231" t="n">
         <v>-1</v>
       </c>
-      <c r="J231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7408,7 +7173,6 @@
       <c r="I232" t="n">
         <v>-1</v>
       </c>
-      <c r="J232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7438,7 +7202,6 @@
       <c r="I233" t="n">
         <v>-1</v>
       </c>
-      <c r="J233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7468,7 +7231,6 @@
       <c r="I234" t="n">
         <v>-1</v>
       </c>
-      <c r="J234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7498,7 +7260,6 @@
       <c r="I235" t="n">
         <v>-1</v>
       </c>
-      <c r="J235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7528,7 +7289,6 @@
       <c r="I236" t="n">
         <v>-1</v>
       </c>
-      <c r="J236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7558,7 +7318,6 @@
       <c r="I237" t="n">
         <v>-1</v>
       </c>
-      <c r="J237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7588,7 +7347,6 @@
       <c r="I238" t="n">
         <v>-1</v>
       </c>
-      <c r="J238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7618,7 +7376,6 @@
       <c r="I239" t="n">
         <v>-1</v>
       </c>
-      <c r="J239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7648,7 +7405,6 @@
       <c r="I240" t="n">
         <v>-1</v>
       </c>
-      <c r="J240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7678,7 +7434,6 @@
       <c r="I241" t="n">
         <v>-1</v>
       </c>
-      <c r="J241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7708,7 +7463,6 @@
       <c r="I242" t="n">
         <v>-1</v>
       </c>
-      <c r="J242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7738,7 +7492,6 @@
       <c r="I243" t="n">
         <v>-1</v>
       </c>
-      <c r="J243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7768,7 +7521,6 @@
       <c r="I244" t="n">
         <v>-1</v>
       </c>
-      <c r="J244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7798,7 +7550,6 @@
       <c r="I245" t="n">
         <v>-1</v>
       </c>
-      <c r="J245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -7828,7 +7579,6 @@
       <c r="I246" t="n">
         <v>-1</v>
       </c>
-      <c r="J246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -7858,7 +7608,6 @@
       <c r="I247" t="n">
         <v>-1</v>
       </c>
-      <c r="J247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -7888,7 +7637,6 @@
       <c r="I248" t="n">
         <v>-1</v>
       </c>
-      <c r="J248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -7918,7 +7666,6 @@
       <c r="I249" t="n">
         <v>-1</v>
       </c>
-      <c r="J249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -7948,7 +7695,6 @@
       <c r="I250" t="n">
         <v>-1</v>
       </c>
-      <c r="J250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -7978,7 +7724,6 @@
       <c r="I251" t="n">
         <v>-1</v>
       </c>
-      <c r="J251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8008,7 +7753,6 @@
       <c r="I252" t="n">
         <v>-1</v>
       </c>
-      <c r="J252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8038,7 +7782,6 @@
       <c r="I253" t="n">
         <v>-1</v>
       </c>
-      <c r="J253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8068,7 +7811,6 @@
       <c r="I254" t="n">
         <v>-1</v>
       </c>
-      <c r="J254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8098,7 +7840,6 @@
       <c r="I255" t="n">
         <v>-1</v>
       </c>
-      <c r="J255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8128,7 +7869,6 @@
       <c r="I256" t="n">
         <v>-1</v>
       </c>
-      <c r="J256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8158,7 +7898,6 @@
       <c r="I257" t="n">
         <v>-1</v>
       </c>
-      <c r="J257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8188,7 +7927,6 @@
       <c r="I258" t="n">
         <v>-1</v>
       </c>
-      <c r="J258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8218,7 +7956,6 @@
       <c r="I259" t="n">
         <v>-1</v>
       </c>
-      <c r="J259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8248,7 +7985,6 @@
       <c r="I260" t="n">
         <v>-1</v>
       </c>
-      <c r="J260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8278,7 +8014,6 @@
       <c r="I261" t="n">
         <v>-1</v>
       </c>
-      <c r="J261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8308,7 +8043,6 @@
       <c r="I262" t="n">
         <v>-1</v>
       </c>
-      <c r="J262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8338,7 +8072,6 @@
       <c r="I263" t="n">
         <v>-1</v>
       </c>
-      <c r="J263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8368,7 +8101,6 @@
       <c r="I264" t="n">
         <v>-1</v>
       </c>
-      <c r="J264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -8398,7 +8130,6 @@
       <c r="I265" t="n">
         <v>-1</v>
       </c>
-      <c r="J265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8428,7 +8159,6 @@
       <c r="I266" t="n">
         <v>-1</v>
       </c>
-      <c r="J266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8458,7 +8188,6 @@
       <c r="I267" t="n">
         <v>-1</v>
       </c>
-      <c r="J267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8488,7 +8217,6 @@
       <c r="I268" t="n">
         <v>-1</v>
       </c>
-      <c r="J268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8518,7 +8246,6 @@
       <c r="I269" t="n">
         <v>-1</v>
       </c>
-      <c r="J269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8548,7 +8275,6 @@
       <c r="I270" t="n">
         <v>-1</v>
       </c>
-      <c r="J270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8578,7 +8304,6 @@
       <c r="I271" t="n">
         <v>-1</v>
       </c>
-      <c r="J271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8608,7 +8333,6 @@
       <c r="I272" t="n">
         <v>-1</v>
       </c>
-      <c r="J272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8638,7 +8362,6 @@
       <c r="I273" t="n">
         <v>-1</v>
       </c>
-      <c r="J273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8668,7 +8391,6 @@
       <c r="I274" t="n">
         <v>-1</v>
       </c>
-      <c r="J274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8698,7 +8420,6 @@
       <c r="I275" t="n">
         <v>-1</v>
       </c>
-      <c r="J275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8728,7 +8449,6 @@
       <c r="I276" t="n">
         <v>-1</v>
       </c>
-      <c r="J276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8758,7 +8478,6 @@
       <c r="I277" t="n">
         <v>-1</v>
       </c>
-      <c r="J277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8788,7 +8507,6 @@
       <c r="I278" t="n">
         <v>-1</v>
       </c>
-      <c r="J278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8818,7 +8536,6 @@
       <c r="I279" t="n">
         <v>-1</v>
       </c>
-      <c r="J279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -8848,7 +8565,6 @@
       <c r="I280" t="n">
         <v>-1</v>
       </c>
-      <c r="J280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -8878,7 +8594,6 @@
       <c r="I281" t="n">
         <v>-1</v>
       </c>
-      <c r="J281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -8908,7 +8623,6 @@
       <c r="I282" t="n">
         <v>-1</v>
       </c>
-      <c r="J282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -8938,7 +8652,6 @@
       <c r="I283" t="n">
         <v>-1</v>
       </c>
-      <c r="J283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -8968,7 +8681,6 @@
       <c r="I284" t="n">
         <v>-1</v>
       </c>
-      <c r="J284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -8998,7 +8710,6 @@
       <c r="I285" t="n">
         <v>-1</v>
       </c>
-      <c r="J285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9028,7 +8739,6 @@
       <c r="I286" t="n">
         <v>-1</v>
       </c>
-      <c r="J286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9058,7 +8768,6 @@
       <c r="I287" t="n">
         <v>-1</v>
       </c>
-      <c r="J287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9088,7 +8797,6 @@
       <c r="I288" t="n">
         <v>-1</v>
       </c>
-      <c r="J288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9118,7 +8826,6 @@
       <c r="I289" t="n">
         <v>-1</v>
       </c>
-      <c r="J289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9148,7 +8855,6 @@
       <c r="I290" t="n">
         <v>-1</v>
       </c>
-      <c r="J290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9178,7 +8884,6 @@
       <c r="I291" t="n">
         <v>-1</v>
       </c>
-      <c r="J291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -9208,7 +8913,6 @@
       <c r="I292" t="n">
         <v>-1</v>
       </c>
-      <c r="J292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -9238,7 +8942,6 @@
       <c r="I293" t="n">
         <v>-1</v>
       </c>
-      <c r="J293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -9268,7 +8971,6 @@
       <c r="I294" t="n">
         <v>-1</v>
       </c>
-      <c r="J294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -9298,7 +9000,6 @@
       <c r="I295" t="n">
         <v>-1</v>
       </c>
-      <c r="J295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -9328,7 +9029,6 @@
       <c r="I296" t="n">
         <v>-1</v>
       </c>
-      <c r="J296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -9358,7 +9058,6 @@
       <c r="I297" t="n">
         <v>-1</v>
       </c>
-      <c r="J297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -9388,7 +9087,6 @@
       <c r="I298" t="n">
         <v>-1</v>
       </c>
-      <c r="J298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -9418,7 +9116,6 @@
       <c r="I299" t="n">
         <v>-1</v>
       </c>
-      <c r="J299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -9448,7 +9145,6 @@
       <c r="I300" t="n">
         <v>-1</v>
       </c>
-      <c r="J300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -9478,7 +9174,6 @@
       <c r="I301" t="n">
         <v>-1</v>
       </c>
-      <c r="J301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -9508,7 +9203,6 @@
       <c r="I302" t="n">
         <v>-1</v>
       </c>
-      <c r="J302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -9538,7 +9232,6 @@
       <c r="I303" t="n">
         <v>-1</v>
       </c>
-      <c r="J303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -9568,7 +9261,6 @@
       <c r="I304" t="n">
         <v>-1</v>
       </c>
-      <c r="J304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -9598,7 +9290,6 @@
       <c r="I305" t="n">
         <v>-1</v>
       </c>
-      <c r="J305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -9628,7 +9319,6 @@
       <c r="I306" t="n">
         <v>-1</v>
       </c>
-      <c r="J306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -9658,7 +9348,6 @@
       <c r="I307" t="n">
         <v>-1</v>
       </c>
-      <c r="J307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9688,7 +9377,6 @@
       <c r="I308" t="n">
         <v>-1</v>
       </c>
-      <c r="J308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9718,7 +9406,6 @@
       <c r="I309" t="n">
         <v>-1</v>
       </c>
-      <c r="J309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9748,7 +9435,6 @@
       <c r="I310" t="n">
         <v>-1</v>
       </c>
-      <c r="J310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -9778,7 +9464,6 @@
       <c r="I311" t="n">
         <v>-1</v>
       </c>
-      <c r="J311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -9808,7 +9493,6 @@
       <c r="I312" t="n">
         <v>-1</v>
       </c>
-      <c r="J312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -9838,7 +9522,6 @@
       <c r="I313" t="n">
         <v>-1</v>
       </c>
-      <c r="J313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -9868,7 +9551,6 @@
       <c r="I314" t="n">
         <v>-1</v>
       </c>
-      <c r="J314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -9898,7 +9580,6 @@
       <c r="I315" t="n">
         <v>-1</v>
       </c>
-      <c r="J315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -9928,7 +9609,6 @@
       <c r="I316" t="n">
         <v>-1</v>
       </c>
-      <c r="J316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -9958,7 +9638,6 @@
       <c r="I317" t="n">
         <v>-1</v>
       </c>
-      <c r="J317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -9988,7 +9667,6 @@
       <c r="I318" t="n">
         <v>-1</v>
       </c>
-      <c r="J318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10018,7 +9696,6 @@
       <c r="I319" t="n">
         <v>-1</v>
       </c>
-      <c r="J319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10048,7 +9725,6 @@
       <c r="I320" t="n">
         <v>-1</v>
       </c>
-      <c r="J320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10078,7 +9754,6 @@
       <c r="I321" t="n">
         <v>-1</v>
       </c>
-      <c r="J321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -10108,7 +9783,6 @@
       <c r="I322" t="n">
         <v>-1</v>
       </c>
-      <c r="J322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -10138,7 +9812,6 @@
       <c r="I323" t="n">
         <v>-1</v>
       </c>
-      <c r="J323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -10168,7 +9841,6 @@
       <c r="I324" t="n">
         <v>-1</v>
       </c>
-      <c r="J324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -10198,7 +9870,6 @@
       <c r="I325" t="n">
         <v>-1</v>
       </c>
-      <c r="J325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -10228,7 +9899,6 @@
       <c r="I326" t="n">
         <v>-1</v>
       </c>
-      <c r="J326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -10258,7 +9928,6 @@
       <c r="I327" t="n">
         <v>-1</v>
       </c>
-      <c r="J327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -10288,7 +9957,6 @@
       <c r="I328" t="n">
         <v>-1</v>
       </c>
-      <c r="J328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -10318,7 +9986,6 @@
       <c r="I329" t="n">
         <v>-1</v>
       </c>
-      <c r="J329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -10348,7 +10015,6 @@
       <c r="I330" t="n">
         <v>-1</v>
       </c>
-      <c r="J330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -10378,7 +10044,6 @@
       <c r="I331" t="n">
         <v>-1</v>
       </c>
-      <c r="J331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -10408,7 +10073,6 @@
       <c r="I332" t="n">
         <v>-1</v>
       </c>
-      <c r="J332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -10438,7 +10102,6 @@
       <c r="I333" t="n">
         <v>-1</v>
       </c>
-      <c r="J333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -10468,7 +10131,6 @@
       <c r="I334" t="n">
         <v>-1</v>
       </c>
-      <c r="J334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -10498,7 +10160,6 @@
       <c r="I335" t="n">
         <v>-1</v>
       </c>
-      <c r="J335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -10528,7 +10189,6 @@
       <c r="I336" t="n">
         <v>-1</v>
       </c>
-      <c r="J336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -10558,7 +10218,6 @@
       <c r="I337" t="n">
         <v>-1</v>
       </c>
-      <c r="J337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -10588,7 +10247,6 @@
       <c r="I338" t="n">
         <v>-1</v>
       </c>
-      <c r="J338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -10618,7 +10276,6 @@
       <c r="I339" t="n">
         <v>-1</v>
       </c>
-      <c r="J339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -10648,7 +10305,6 @@
       <c r="I340" t="n">
         <v>-1</v>
       </c>
-      <c r="J340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -10678,7 +10334,6 @@
       <c r="I341" t="n">
         <v>-1</v>
       </c>
-      <c r="J341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10708,7 +10363,6 @@
       <c r="I342" t="n">
         <v>-1</v>
       </c>
-      <c r="J342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10738,7 +10392,6 @@
       <c r="I343" t="n">
         <v>-1</v>
       </c>
-      <c r="J343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10768,7 +10421,6 @@
       <c r="I344" t="n">
         <v>-1</v>
       </c>
-      <c r="J344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -10798,7 +10450,6 @@
       <c r="I345" t="n">
         <v>1</v>
       </c>
-      <c r="J345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -10828,7 +10479,6 @@
       <c r="I346" t="n">
         <v>1</v>
       </c>
-      <c r="J346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10858,7 +10508,6 @@
       <c r="I347" t="n">
         <v>1</v>
       </c>
-      <c r="J347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -10888,7 +10537,6 @@
       <c r="I348" t="n">
         <v>1</v>
       </c>
-      <c r="J348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -10918,7 +10566,6 @@
       <c r="I349" t="n">
         <v>1</v>
       </c>
-      <c r="J349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -10948,7 +10595,6 @@
       <c r="I350" t="n">
         <v>1</v>
       </c>
-      <c r="J350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -10978,7 +10624,6 @@
       <c r="I351" t="n">
         <v>1</v>
       </c>
-      <c r="J351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11008,7 +10653,6 @@
       <c r="I352" t="n">
         <v>1</v>
       </c>
-      <c r="J352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -11038,7 +10682,6 @@
       <c r="I353" t="n">
         <v>1</v>
       </c>
-      <c r="J353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -11068,7 +10711,6 @@
       <c r="I354" t="n">
         <v>1</v>
       </c>
-      <c r="J354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -11098,7 +10740,6 @@
       <c r="I355" t="n">
         <v>1</v>
       </c>
-      <c r="J355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -11128,7 +10769,6 @@
       <c r="I356" t="n">
         <v>1</v>
       </c>
-      <c r="J356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -11158,7 +10798,6 @@
       <c r="I357" t="n">
         <v>1</v>
       </c>
-      <c r="J357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -11188,7 +10827,6 @@
       <c r="I358" t="n">
         <v>1</v>
       </c>
-      <c r="J358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -11218,7 +10856,6 @@
       <c r="I359" t="n">
         <v>1</v>
       </c>
-      <c r="J359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -11248,7 +10885,6 @@
       <c r="I360" t="n">
         <v>1</v>
       </c>
-      <c r="J360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -11278,7 +10914,6 @@
       <c r="I361" t="n">
         <v>1</v>
       </c>
-      <c r="J361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -11308,7 +10943,6 @@
       <c r="I362" t="n">
         <v>1</v>
       </c>
-      <c r="J362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -11338,7 +10972,6 @@
       <c r="I363" t="n">
         <v>1</v>
       </c>
-      <c r="J363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -11368,7 +11001,6 @@
       <c r="I364" t="n">
         <v>1</v>
       </c>
-      <c r="J364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11398,7 +11030,6 @@
       <c r="I365" t="n">
         <v>1</v>
       </c>
-      <c r="J365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -11428,7 +11059,6 @@
       <c r="I366" t="n">
         <v>1</v>
       </c>
-      <c r="J366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -11458,7 +11088,6 @@
       <c r="I367" t="n">
         <v>1</v>
       </c>
-      <c r="J367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -11488,7 +11117,6 @@
       <c r="I368" t="n">
         <v>1</v>
       </c>
-      <c r="J368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
